--- a/E-FORMS FORM.xlsx
+++ b/E-FORMS FORM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE10144-71D8-4C98-B102-84F8B9C31EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6D305-98CD-46DF-8D75-9763DAB857F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75A93F97-E49A-47CC-A91A-770D77630198}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>S NO.</t>
   </si>
@@ -246,12 +246,105 @@
   <si>
     <t>APPELATION</t>
   </si>
+  <si>
+    <t>Ananya Gupta Bouddh</t>
+  </si>
+  <si>
+    <t>Nodal Officer</t>
+  </si>
+  <si>
+    <t>Executive Engineer</t>
+  </si>
+  <si>
+    <t>Water Resources Department</t>
+  </si>
+  <si>
+    <t>ananyagupta.bouddh@cg.gov.in</t>
+  </si>
+  <si>
+    <t>प्रपत्र- 02</t>
+  </si>
+  <si>
+    <t>Master Trainer</t>
+  </si>
+  <si>
+    <t>Anand Singh</t>
+  </si>
+  <si>
+    <t>Pawan Kumar Sahu</t>
+  </si>
+  <si>
+    <t>Sr. Software Developer</t>
+  </si>
+  <si>
+    <t>a4anandsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>pawansahuchips@gmail.com</t>
+  </si>
+  <si>
+    <t>Assistant Engineer</t>
+  </si>
+  <si>
+    <t>Vaibhav Banjare</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>MHB</t>
+  </si>
+  <si>
+    <t>MGB</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>HGB</t>
+  </si>
+  <si>
+    <t>Ishwar Dutt Bhagat</t>
+  </si>
+  <si>
+    <t>idbbhagat@gmail.com</t>
+  </si>
+  <si>
+    <t>Prashant Kumar Soni</t>
+  </si>
+  <si>
+    <t>prashantsonilucky1@gmail.com</t>
+  </si>
+  <si>
+    <t>vaibhavbanjare818@gmail.com</t>
+  </si>
+  <si>
+    <t>Dipanshu Kumar</t>
+  </si>
+  <si>
+    <t>Govind Singh kanwar</t>
+  </si>
+  <si>
+    <t>govindkanwar015@gmail.com</t>
+  </si>
+  <si>
+    <t>deepanshu7918@gmail.com</t>
+  </si>
+  <si>
+    <t>EnC</t>
+  </si>
+  <si>
+    <t>Ajeet Jangde</t>
+  </si>
+  <si>
+    <t>ajeetjangde724@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +362,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,8 +370,21 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -334,11 +440,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,23 +477,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,875 +819,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847A809E-B07D-4984-801B-04953204F7BE}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="4" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11">
+        <v>9179084355</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>30</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>31</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.3" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343DB511-8FFC-4700-9435-9FDB794E1DFF}">
-  <dimension ref="B4:H42"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11">
+        <v>9302699210</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11">
+        <v>9340920082</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9907347179</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7999352293</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11">
+        <v>9617047156</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="11">
+        <v>7047612212</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11">
+        <v>9806058896</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>30</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>32</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>33</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="D12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11">
+        <v>8839337956</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{C6C00086-C442-4740-AB1D-C1EAE387E78C}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{9D3389CD-19FF-4C2F-9EF6-2847743DD614}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{F68998A7-9157-4309-A49D-E70F02A5B5B3}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{1EF18D89-9FC3-4FB8-B83F-17014CD1888D}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{0F991A57-90B0-400F-9ADA-3B87890B396F}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{636190C3-4492-4280-8F7C-F90FF4196C8E}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{D0709B8F-8C3A-43DD-A62D-D889A7D07E9E}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{1645C097-0A6A-4341-8842-F702F52DD84C}"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1586,22 +1289,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>

--- a/E-FORMS FORM.xlsx
+++ b/E-FORMS FORM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6D305-98CD-46DF-8D75-9763DAB857F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D58B4D-9240-4E08-B0A3-AF93EE3345A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{75A93F97-E49A-47CC-A91A-770D77630198}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>S NO.</t>
   </si>
@@ -247,9 +247,6 @@
     <t>APPELATION</t>
   </si>
   <si>
-    <t>Ananya Gupta Bouddh</t>
-  </si>
-  <si>
     <t>Nodal Officer</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Water Resources Department</t>
   </si>
   <si>
-    <t>ananyagupta.bouddh@cg.gov.in</t>
-  </si>
-  <si>
     <t>प्रपत्र- 02</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>Pawan Kumar Sahu</t>
   </si>
   <si>
-    <t>Sr. Software Developer</t>
-  </si>
-  <si>
     <t>a4anandsingh@gmail.com</t>
   </si>
   <si>
@@ -331,20 +322,56 @@
     <t>deepanshu7918@gmail.com</t>
   </si>
   <si>
-    <t>EnC</t>
-  </si>
-  <si>
     <t>Ajeet Jangde</t>
   </si>
   <si>
     <t>ajeetjangde724@gmail.com</t>
+  </si>
+  <si>
+    <t>919340830289</t>
+  </si>
+  <si>
+    <t>alokkumar.agrawal@cg.gov.in</t>
+  </si>
+  <si>
+    <t>E-n-C</t>
+  </si>
+  <si>
+    <t>Tarun Jethwa</t>
+  </si>
+  <si>
+    <t>Assistant Grade 1</t>
+  </si>
+  <si>
+    <t>tarunjethwa511@gmail.com</t>
+  </si>
+  <si>
+    <t>Alok Kumar Agrawal</t>
+  </si>
+  <si>
+    <t>Sr. S/w Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>E-HRMS</t>
+  </si>
+  <si>
+    <t>Chandrakant Kishor</t>
+  </si>
+  <si>
+    <t>chandrakantkishor24@gmail.com</t>
+  </si>
+  <si>
+    <t>updated no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +416,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +503,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,8 +538,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,19 +555,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{72B786D7-CC87-4D08-B10A-A177FA9C4667}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,38 +900,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847A809E-B07D-4984-801B-04953204F7BE}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -862,17 +943,17 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -911,43 +992,23 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11">
-        <v>9179084355</v>
+      <c r="E7" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -962,49 +1023,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343DB511-8FFC-4700-9435-9FDB794E1DFF}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="8" width="20.42578125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1027,204 +1089,217 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E4" s="11">
         <v>9302699210</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11">
         <v>9340920082</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="11">
         <v>9907347179</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11">
         <v>7999352293</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="11">
         <v>9617047156</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="11">
         <v>7047612212</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="11">
         <v>9806058896</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="11">
+        <v>9755182130</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="11">
         <v>8839337956</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1233,7 +1308,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1241,6 +1316,69 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="11">
+        <v>9907347079</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>7</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="29">
+        <v>8878602002</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1257,9 +1395,12 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{636190C3-4492-4280-8F7C-F90FF4196C8E}"/>
     <hyperlink ref="F6" r:id="rId7" xr:uid="{D0709B8F-8C3A-43DD-A62D-D889A7D07E9E}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{1645C097-0A6A-4341-8842-F702F52DD84C}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{B5B3E5E5-A4F2-4944-80DC-33ADC0445059}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{6F7D48C7-3CB7-427C-8EA6-F2E604883607}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{B2EF0E1A-2F09-44F8-8A61-C030BDEB47F1}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1289,22 +1430,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
